--- a/文档/其他文档/Others/PC/20200803开始的新工作作息.xlsx
+++ b/文档/其他文档/Others/PC/20200803开始的新工作作息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面试时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上下午都可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,11 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整理需求测试的需求
-并发送测试计划邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下午若遇面试：
 可晚上到家后发送测试计划邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +184,35 @@
   </si>
   <si>
     <t>如若邮件在周五之前未反馈，需要去催促确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日工作侧重于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求（下午）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可安排面试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待需求反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理要测试的需求
+并发送测试计划邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,12 +265,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,8 +292,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -302,19 +328,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -329,11 +378,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,17 +699,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -669,7 +732,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -679,46 +742,46 @@
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
+      <c r="F3" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -729,17 +792,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -748,45 +811,67 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="12" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="10" t="s">
-        <v>38</v>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -796,17 +881,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -832,15 +917,15 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -848,38 +933,40 @@
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -888,38 +975,54 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="12" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="10" t="s">
-        <v>38</v>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -948,89 +1051,89 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/文档/其他文档/Others/PC/20200803开始的新工作作息.xlsx
+++ b/文档/其他文档/Others/PC/20200803开始的新工作作息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,11 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交需求
-反馈文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Noon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,6 +208,16 @@
   <si>
     <t>整理要测试的需求
 并发送测试计划邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如若邮件在周五之前未反馈，需要去催促确认
+如若甘路、赵哲豪在周五下午2点半-3点仍未反馈，则默认按照"按计划实施"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交需求反馈文档
+并发送上线计划邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,21 +386,21 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,7 +737,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -750,29 +755,29 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -792,7 +797,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -800,71 +805,71 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="D8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>44</v>
+      <c r="F8" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -931,15 +936,15 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -964,65 +969,65 @@
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>44</v>
+      <c r="D7" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="15" t="s">
-        <v>44</v>
+      <c r="F7" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1051,44 +1056,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,43 +1102,43 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
+      <c r="D5" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/文档/其他文档/Others/PC/20200803开始的新工作作息.xlsx
+++ b/文档/其他文档/Others/PC/20200803开始的新工作作息.xlsx
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如若邮件在周五之前未反馈，则默认按照"按计划实施"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如若邮件在周五之前未反馈，需要去催促确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,6 +214,11 @@
   <si>
     <t>提交需求反馈文档
 并发送上线计划邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如若邮件在周五之前未反馈，则默认按照"按计划实施"
+从20200818开始，CRM需求只发给赵晓燕就行，其他的一律按照“按计划实施”填写！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +762,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -805,18 +806,18 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>16</v>
@@ -836,22 +837,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="D8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="F8" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
@@ -969,18 +970,18 @@
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>16</v>
@@ -1000,18 +1001,18 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
@@ -1068,7 +1069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1078,8 +1079,8 @@
       <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
+      <c r="D2" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,7 +1094,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,7 +1114,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,7 +1128,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/PC/20200803开始的新工作作息.xlsx
+++ b/文档/其他文档/Others/PC/20200803开始的新工作作息.xlsx
@@ -10,13 +10,17 @@
     <sheet name="需求统计和测试工作都需要做的" sheetId="1" r:id="rId1"/>
     <sheet name="只负责需求统计" sheetId="2" r:id="rId2"/>
     <sheet name="需求统计说明" sheetId="3" r:id="rId3"/>
+    <sheet name="在电信工作的阶段时间汇总" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">在电信工作的阶段时间汇总!$A$1:$I$1</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,8 +221,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲舒服摸鱼阶段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责30BD,DID 交换资源整合测试项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲舒服摸鱼阶段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至今</t>
+  </si>
+  <si>
     <t>如若邮件在周五之前未反馈，则默认按照"按计划实施"
-从20200818开始，CRM需求只发给赵晓燕就行，其他的一律按照“按计划实施”填写！！</t>
+从20200818开始，CRM需求只发给赵晓燕就行（从2020国庆后打算CRM的需求都不发了，因为即便不去确认直接写“按计划实施”，都没问题，所以没必要让他们确认了！），其他的一律按照“按计划实施”填写！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚来电信工作的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次负责测试项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结束后又空闲了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈勍离职后接手的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李栋被调离后重新接手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻逼老李和老曹搞的愚蠢的测试组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至今</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责IT部需求管控统计阶段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责IT部需求管控统计阶段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2020/8/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责IT部端到端测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责IT部端到端测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -403,6 +506,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,7 +1185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1080,7 +1196,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,4 +1263,227 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="40.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>42842</v>
+      </c>
+      <c r="B2" s="21">
+        <v>43261</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="3">
+        <v>419</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="3">
+        <f>E2+E4</f>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>43262</v>
+      </c>
+      <c r="B3" s="23">
+        <v>43402</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11">
+        <v>140</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="11">
+        <f>E3+E6+E8</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>43403</v>
+      </c>
+      <c r="B4" s="21">
+        <v>43577</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3">
+        <v>174</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="6">
+        <f>E5+E7</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>43578</v>
+      </c>
+      <c r="B5" s="22">
+        <v>43798</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6">
+        <v>220</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>43799</v>
+      </c>
+      <c r="B6" s="23">
+        <v>44046</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="11">
+        <v>247</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2">
+        <f>I2+I3+I4</f>
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>44047</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>44047</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="11">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档/其他文档/Others/PC/20200803开始的新工作作息.xlsx
+++ b/文档/其他文档/Others/PC/20200803开始的新工作作息.xlsx
@@ -7,20 +7,20 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="需求统计和测试工作都需要做的" sheetId="1" r:id="rId1"/>
-    <sheet name="只负责需求统计" sheetId="2" r:id="rId2"/>
-    <sheet name="需求统计说明" sheetId="3" r:id="rId3"/>
-    <sheet name="在电信工作的阶段时间汇总" sheetId="4" r:id="rId4"/>
+    <sheet name="只负责需求统计" sheetId="2" r:id="rId1"/>
+    <sheet name="需求统计说明" sheetId="3" r:id="rId2"/>
+    <sheet name="在电信工作的阶段时间汇总" sheetId="4" r:id="rId3"/>
+    <sheet name="需求统计和测试工作都需要做的(无需了)" sheetId="1" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">在电信工作的阶段时间汇总!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">在电信工作的阶段时间汇总!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,11 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如若邮件在周五之前未反馈，需要去催促确认
-如若甘路、赵哲豪在周五下午2点半-3点仍未反馈，则默认按照"按计划实施"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提交需求反馈文档
 并发送上线计划邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,9 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>至今</t>
-  </si>
-  <si>
     <t>如若邮件在周五之前未反馈，则默认按照"按计划实施"
 从20200818开始，CRM需求只发给赵晓燕就行（从2020国庆后打算CRM的需求都不发了，因为即便不去确认直接写“按计划实施”，都没问题，所以没必要让他们确认了！），其他的一律按照“按计划实施”填写！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,19 +301,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截至2020/8/31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负责IT部端到端测试1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负责IT部端到端测试2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送剩余IBP需求进行确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送IBP和综资的需求进行测试确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理要测试的需求并发送测试计划邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交需求反馈文档并发送上线计划邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因周五下午需要提交需求反馈文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二下午有面试：周三上午整理需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三下午有面试：当晚或周四上午发邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待需求反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日工作侧重时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周实际工作天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周可摸鱼天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可摸鱼天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2021/2/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如若邮件在周五之前未反馈，需要去催促确认
+如若甘路、赵哲豪在周五下午2点半-3点仍未反馈，则直接删除其所负责的需求！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -498,6 +547,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,17 +559,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,21 +866,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="6" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -853,147 +898,161 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="H3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="2">
+        <f>5-I4</f>
+        <v>1.5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="2">
+        <f>B9+C9+D9+E9+F9</f>
+        <v>3.5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="9" t="s">
-        <v>35</v>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,161 +1061,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1196,7 +1100,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,7 +1134,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,9 +1169,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1286,51 +1190,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="18">
         <v>42842</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>43261</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3">
         <v>419</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I2" s="3">
         <f>E2+E4</f>
@@ -1338,14 +1242,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="20">
         <v>43262</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="20">
         <v>43402</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>39</v>
@@ -1354,130 +1258,110 @@
         <v>140</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="11">
-        <f>E3+E6+E8</f>
-        <v>414</v>
+        <f>E3+E6</f>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>43403</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>43577</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3">
         <v>174</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="6">
         <f>E5+E7</f>
-        <v>247</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
         <v>43578</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <v>43798</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="6">
         <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>43799</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>44046</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11">
         <v>247</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2">
         <f>I2+I3+I4</f>
-        <v>1254</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>44047</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="6">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>44047</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="11">
-        <v>27</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1486,4 +1370,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>